--- a/Jogos_do_Dia/2023-03-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -688,28 +688,28 @@
         <v>3.92</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:34">

--- a/Jogos_do_Dia/2023-03-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -673,10 +673,10 @@
         <v>1.29</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X2">
         <v>1.96</v>
@@ -792,28 +792,28 @@
         <v>4.78</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -896,28 +896,28 @@
         <v>3.04</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
